--- a/JOGOS/2023-07-24_Jogos_do_Dia_arkad_transform(last).xlsx
+++ b/JOGOS/2023-07-24_Jogos_do_Dia_arkad_transform(last).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="187">
   <si>
     <t>League</t>
   </si>
@@ -1243,25 +1243,25 @@
         <v>1.67</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N2">
-        <v>0.5677270907634907</v>
+        <v>0.6938886664887111</v>
       </c>
       <c r="O2">
-        <v>0.3431170278996366</v>
+        <v>0.2713399212495508</v>
       </c>
       <c r="P2">
-        <v>0.8303918846568723</v>
+        <v>1.053003329707852</v>
       </c>
       <c r="Q2">
-        <v>0.3531016112146681</v>
+        <v>0.4086618605109563</v>
       </c>
       <c r="R2">
-        <v>0.5643447288358895</v>
+        <v>0.5104176869752606</v>
       </c>
       <c r="S2">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1273,16 +1273,16 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Y2">
         <v>60</v>
       </c>
       <c r="Z2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA2">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>40</v>
       </c>
       <c r="AD2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AE2">
-        <v>0.7200822998230957</v>
+        <v>0.8919244682526195</v>
       </c>
       <c r="AF2">
         <v>0.6</v>
       </c>
       <c r="AG2">
-        <v>1.165343164633502</v>
+        <v>1.165343164633501</v>
       </c>
       <c r="AH2">
         <v>80</v>
@@ -1312,7 +1312,7 @@
         <v>40</v>
       </c>
       <c r="AJ2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK2">
         <v>40</v>
@@ -1324,37 +1324,37 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR2">
-        <v>2.165514738670848</v>
+        <v>2.344444714690012</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AT2">
-        <v>1.787230230921191</v>
+        <v>1.675899588222728</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>60</v>
       </c>
       <c r="BB2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BC2">
         <v>20</v>
@@ -1375,37 +1375,37 @@
         <v>20</v>
       </c>
       <c r="BE2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>20</v>
       </c>
       <c r="BG2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="BH2">
-        <v>1.788093652906532</v>
+        <v>1.645701471510958</v>
       </c>
       <c r="BI2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BJ2">
-        <v>0.7905694150420947</v>
+        <v>0.6236095644623235</v>
       </c>
       <c r="BK2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BL2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BM2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BN2">
+        <v>50</v>
+      </c>
+      <c r="BO2">
         <v>40</v>
-      </c>
-      <c r="BO2">
-        <v>30</v>
       </c>
       <c r="BP2">
         <v>10</v>
@@ -1417,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="BS2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT2">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="BU2">
         <v>0.8</v>
@@ -1429,16 +1429,16 @@
         <v>1.457737973711324</v>
       </c>
       <c r="BW2">
-        <v>0.3718253968253968</v>
+        <v>0.482936507936508</v>
       </c>
       <c r="BX2">
-        <v>2.274419839553223</v>
+        <v>1.785665258374294</v>
       </c>
       <c r="BY2">
-        <v>0.2166772085178157</v>
+        <v>0.1863174301978856</v>
       </c>
       <c r="BZ2">
-        <v>0.6007249487047182</v>
+        <v>0.6676059486687025</v>
       </c>
       <c r="CA2">
         <v>0.5355010863383979</v>
@@ -1494,43 +1494,43 @@
         <v>1.57</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="N3">
-        <v>0.7745966692414848</v>
+        <v>0.6923076923076932</v>
       </c>
       <c r="O3">
-        <v>0.3146390168970814</v>
+        <v>0.3317927170868348</v>
       </c>
       <c r="P3">
-        <v>1.270577068077833</v>
+        <v>1.171075816351213</v>
       </c>
       <c r="Q3">
-        <v>0.280336920144673</v>
+        <v>0.3282815424319823</v>
       </c>
       <c r="R3">
-        <v>0.6790427536085719</v>
+        <v>0.6081705870232426</v>
       </c>
       <c r="S3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X3">
         <v>50</v>
       </c>
       <c r="Y3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z3">
         <v>40</v>
@@ -1542,28 +1542,28 @@
         <v>10</v>
       </c>
       <c r="AC3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD3">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AE3">
-        <v>1.317397886017221</v>
+        <v>1.165343164633501</v>
       </c>
       <c r="AF3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>1.222783260682902</v>
+        <v>1.05409255338946</v>
       </c>
       <c r="AH3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI3">
         <v>20</v>
       </c>
       <c r="AJ3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AK3">
         <v>20</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO3">
         <v>6</v>
@@ -1587,25 +1587,25 @@
         <v>1</v>
       </c>
       <c r="AR3">
-        <v>2.023596268921164</v>
+        <v>1.995445115010334</v>
       </c>
       <c r="AS3">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AT3">
-        <v>2.15624445580549</v>
+        <v>2.392840723571955</v>
       </c>
       <c r="AU3">
-        <v>0.6000000000000001</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="AV3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AW3">
         <v>1</v>
       </c>
       <c r="AX3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -1614,13 +1614,13 @@
         <v>80</v>
       </c>
       <c r="BA3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BB3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BC3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1629,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BG3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BH3">
-        <v>0.6900655593423537</v>
+        <v>0.8606629658238711</v>
       </c>
       <c r="BI3">
         <v>1.1</v>
@@ -1650,7 +1650,7 @@
         <v>60</v>
       </c>
       <c r="BM3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BN3">
         <v>20</v>
@@ -1662,16 +1662,16 @@
         <v>10</v>
       </c>
       <c r="BQ3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BR3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>-0.9000000000000001</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="BU3">
         <v>1</v>
@@ -1680,16 +1680,16 @@
         <v>1.095445115010332</v>
       </c>
       <c r="BW3">
-        <v>0.3285925658928182</v>
+        <v>0.2928782801785325</v>
       </c>
       <c r="BX3">
-        <v>0.7220802171220349</v>
+        <v>0.8754254977373638</v>
       </c>
       <c r="BY3">
-        <v>0.2849373365071019</v>
+        <v>0.2706984975298905</v>
       </c>
       <c r="BZ3">
-        <v>0.3401791758712862</v>
+        <v>0.360857083536441</v>
       </c>
       <c r="CA3">
         <v>0.2130243124574036</v>
@@ -1745,22 +1745,22 @@
         <v>1.67</v>
       </c>
       <c r="M4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="N4">
-        <v>1.040832999733067</v>
+        <v>0.96890428330361</v>
       </c>
       <c r="O4">
-        <v>0.2162527021348196</v>
+        <v>0.2570690286654319</v>
       </c>
       <c r="P4">
-        <v>1.069717844305154</v>
+        <v>0.8772264869461501</v>
       </c>
       <c r="Q4">
-        <v>0.3151581658820083</v>
+        <v>0.314715138235007</v>
       </c>
       <c r="R4">
-        <v>0.2781049229565707</v>
+        <v>0.2542507661679226</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X4">
         <v>70</v>
@@ -1796,10 +1796,10 @@
         <v>20</v>
       </c>
       <c r="AD4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AE4">
-        <v>1.165343164633502</v>
+        <v>0.9642122253007899</v>
       </c>
       <c r="AF4">
         <v>1.1</v>
@@ -1811,7 +1811,7 @@
         <v>80</v>
       </c>
       <c r="AI4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ4">
         <v>60</v>
@@ -1829,34 +1829,34 @@
         <v>40</v>
       </c>
       <c r="AO4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP4">
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR4">
-        <v>2.348999599679678</v>
+        <v>2.543900205328845</v>
       </c>
       <c r="AS4">
-        <v>-0.5</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="AT4">
-        <v>1.92847849308582</v>
+        <v>1.52478514330935</v>
       </c>
       <c r="AU4">
-        <v>-1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AV4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AW4">
         <v>1</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -1880,28 +1880,28 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BG4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="BH4">
-        <v>1.290994448735805</v>
+        <v>1.104921028901948</v>
       </c>
       <c r="BI4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BJ4">
-        <v>0.8384198505551909</v>
+        <v>0.7200822998230957</v>
       </c>
       <c r="BK4">
         <v>90</v>
       </c>
       <c r="BL4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BM4">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BN4">
         <v>40</v>
@@ -1913,34 +1913,34 @@
         <v>10</v>
       </c>
       <c r="BQ4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BR4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT4">
-        <v>-0.09999999999999987</v>
+        <v>-0.5</v>
       </c>
       <c r="BU4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>1.457737973711325</v>
+        <v>1.095445115010333</v>
       </c>
       <c r="BW4">
-        <v>0.2752367613712152</v>
+        <v>0.3737352598697137</v>
       </c>
       <c r="BX4">
-        <v>1.374337105529757</v>
+        <v>0.9577907069580747</v>
       </c>
       <c r="BY4">
-        <v>0.2141656535514294</v>
+        <v>0.2302878572469385</v>
       </c>
       <c r="BZ4">
-        <v>0.3764003011193756</v>
+        <v>0.3126701043270054</v>
       </c>
       <c r="CA4">
         <v>0.1582771395134559</v>
@@ -1996,67 +1996,67 @@
         <v>1.75</v>
       </c>
       <c r="M5">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>0.7913896498278653</v>
+        <v>0.8563488385776753</v>
       </c>
       <c r="O5">
-        <v>0.4027737644765509</v>
+        <v>0.3625330859057015</v>
       </c>
       <c r="P5">
-        <v>0.5462973498760127</v>
+        <v>0.583378100817365</v>
       </c>
       <c r="Q5">
-        <v>0.3444605156080316</v>
+        <v>0.3769757143948411</v>
       </c>
       <c r="R5">
-        <v>0.4607412524468532</v>
+        <v>0.4033733652964243</v>
       </c>
       <c r="S5">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5">
+        <v>80</v>
+      </c>
+      <c r="Y5">
         <v>90</v>
-      </c>
-      <c r="X5">
-        <v>80</v>
-      </c>
-      <c r="Y5">
-        <v>70</v>
       </c>
       <c r="Z5">
         <v>50</v>
       </c>
       <c r="AA5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB5">
         <v>10</v>
       </c>
       <c r="AC5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD5">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AE5">
-        <v>0.6332866171912033</v>
+        <v>0.4994327848429292</v>
       </c>
       <c r="AF5">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AG5">
-        <v>1.028841161422507</v>
+        <v>0.8384198505551912</v>
       </c>
       <c r="AH5">
         <v>100</v>
@@ -2068,13 +2068,13 @@
         <v>100</v>
       </c>
       <c r="AK5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AL5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>80</v>
@@ -2089,31 +2089,31 @@
         <v>2</v>
       </c>
       <c r="AR5">
-        <v>2.217142193415505</v>
+        <v>2.156303046574648</v>
       </c>
       <c r="AS5">
-        <v>0.8999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AT5">
-        <v>2.386744522289708</v>
+        <v>1.522478501128665</v>
       </c>
       <c r="AU5">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AV5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AW5">
         <v>1</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AY5">
         <v>1</v>
       </c>
       <c r="AZ5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BA5">
         <v>80</v>
@@ -2122,7 +2122,7 @@
         <v>80</v>
       </c>
       <c r="BC5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BD5">
         <v>40</v>
@@ -2137,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="BH5">
-        <v>0.9428090415820634</v>
+        <v>0.9428090415820635</v>
       </c>
       <c r="BI5">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="BJ5">
-        <v>0.7905694150420951</v>
+        <v>0.8384198505551913</v>
       </c>
       <c r="BK5">
         <v>90</v>
@@ -2155,10 +2155,10 @@
         <v>80</v>
       </c>
       <c r="BN5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BO5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -2167,13 +2167,13 @@
         <v>50</v>
       </c>
       <c r="BR5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BS5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT5">
-        <v>-0.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="BU5">
         <v>1.1</v>
@@ -2182,16 +2182,16 @@
         <v>0.9491187735373227</v>
       </c>
       <c r="BW5">
-        <v>0.4304953784752669</v>
+        <v>0.4941896459911905</v>
       </c>
       <c r="BX5">
-        <v>1.057553738839204</v>
+        <v>0.8795775193156062</v>
       </c>
       <c r="BY5">
-        <v>0.1604557993328201</v>
+        <v>0.1593541917517091</v>
       </c>
       <c r="BZ5">
-        <v>0.3418555324004893</v>
+        <v>0.3146072814328991</v>
       </c>
       <c r="CA5">
         <v>0.3101885252491787</v>
@@ -2247,22 +2247,22 @@
         <v>1.53</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="N6">
-        <v>0.8563488385776754</v>
+        <v>0.7913896498278654</v>
       </c>
       <c r="O6">
-        <v>0.3185057631776208</v>
+        <v>0.314696239368097</v>
       </c>
       <c r="P6">
-        <v>0.952417733020701</v>
+        <v>0.8811471687228645</v>
       </c>
       <c r="Q6">
-        <v>0.3359163814792926</v>
+        <v>0.3733678955450905</v>
       </c>
       <c r="R6">
-        <v>0.4656839166962153</v>
+        <v>0.3942988926045071</v>
       </c>
       <c r="S6">
         <v>1.4</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>60</v>
       </c>
       <c r="Y6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z6">
         <v>40</v>
@@ -2298,10 +2298,10 @@
         <v>50</v>
       </c>
       <c r="AD6">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AE6">
-        <v>0.8919244682526195</v>
+        <v>0.9460770203292456</v>
       </c>
       <c r="AF6">
         <v>0.9</v>
@@ -2316,7 +2316,7 @@
         <v>60</v>
       </c>
       <c r="AJ6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK6">
         <v>20</v>
@@ -2331,25 +2331,25 @@
         <v>40</v>
       </c>
       <c r="AO6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP6">
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR6">
-        <v>2.115185644158321</v>
+        <v>2.26187754369854</v>
       </c>
       <c r="AS6">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="AT6">
-        <v>2.294794233123499</v>
+        <v>1.556929445750879</v>
       </c>
       <c r="AU6">
-        <v>0.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AV6">
         <v>0.6</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -2370,31 +2370,31 @@
         <v>80</v>
       </c>
       <c r="BB6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BC6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BG6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BH6">
-        <v>1.165343164633501</v>
+        <v>1.176103717640806</v>
       </c>
       <c r="BI6">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="BJ6">
-        <v>0.8148845426702928</v>
+        <v>0.9040262963743213</v>
       </c>
       <c r="BK6">
         <v>90</v>
@@ -2403,19 +2403,19 @@
         <v>80</v>
       </c>
       <c r="BM6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BN6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BO6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BP6">
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BR6">
         <v>5</v>
@@ -2424,25 +2424,25 @@
         <v>1</v>
       </c>
       <c r="BT6">
-        <v>-0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="BU6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>1.285714285714286</v>
+        <v>1.095445115010332</v>
       </c>
       <c r="BW6">
-        <v>0.2578170881879321</v>
+        <v>0.3001840349666437</v>
       </c>
       <c r="BX6">
-        <v>1.13704320757901</v>
+        <v>1.132398452525988</v>
       </c>
       <c r="BY6">
-        <v>0.2734502262443439</v>
+        <v>0.2396895424836601</v>
       </c>
       <c r="BZ6">
-        <v>0.3274245613365632</v>
+        <v>0.4226664305853928</v>
       </c>
       <c r="CA6">
         <v>0.3236579831448999</v>
@@ -2504,25 +2504,25 @@
         <v>0.96890428330361</v>
       </c>
       <c r="O7">
-        <v>0.4217714071274443</v>
+        <v>0.4263547404607776</v>
       </c>
       <c r="P7">
-        <v>0.7384605913908062</v>
+        <v>0.72586571859405</v>
       </c>
       <c r="Q7">
-        <v>0.3121773083409912</v>
+        <v>0.3074424598561427</v>
       </c>
       <c r="R7">
-        <v>0.4709254286471419</v>
+        <v>0.4648130619812134</v>
       </c>
       <c r="S7">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -2537,7 +2537,7 @@
         <v>80</v>
       </c>
       <c r="Z7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA7">
         <v>30</v>
@@ -2546,31 +2546,31 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AE7">
-        <v>0.7856742013183861</v>
+        <v>0.8384198505551909</v>
       </c>
       <c r="AF7">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AG7">
-        <v>0.5160420110886794</v>
+        <v>0.3715737627228064</v>
       </c>
       <c r="AH7">
         <v>100</v>
       </c>
       <c r="AI7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AL7">
         <v>40</v>
@@ -2579,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AO7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP7">
         <v>4</v>
@@ -2591,16 +2591,16 @@
         <v>5</v>
       </c>
       <c r="AR7">
-        <v>2.543900205328845</v>
+        <v>2.543900205328846</v>
       </c>
       <c r="AS7">
-        <v>0.7</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="AT7">
-        <v>1.916376089350201</v>
+        <v>1.872993689557368</v>
       </c>
       <c r="AU7">
-        <v>0.3999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="AV7">
         <v>1</v>
@@ -2636,16 +2636,16 @@
         <v>60</v>
       </c>
       <c r="BG7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="BH7">
-        <v>0.8198497637473573</v>
+        <v>0.9860132971832691</v>
       </c>
       <c r="BI7">
         <v>0.8</v>
       </c>
       <c r="BJ7">
-        <v>0.7905694150420953</v>
+        <v>0.5270462766947307</v>
       </c>
       <c r="BK7">
         <v>80</v>
@@ -2657,7 +2657,7 @@
         <v>60</v>
       </c>
       <c r="BN7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BO7">
         <v>0</v>
@@ -2669,31 +2669,31 @@
         <v>60</v>
       </c>
       <c r="BR7">
+        <v>3</v>
+      </c>
+      <c r="BS7">
         <v>2</v>
       </c>
-      <c r="BS7">
-        <v>3</v>
-      </c>
       <c r="BT7">
-        <v>0.0888888888888888</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="BU7">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="BV7">
-        <v>0.7953949089757175</v>
+        <v>0.816496580927726</v>
       </c>
       <c r="BW7">
-        <v>0.4448802547029753</v>
+        <v>0.3923580661848313</v>
       </c>
       <c r="BX7">
-        <v>0.7368856115549061</v>
+        <v>0.8949827020494627</v>
       </c>
       <c r="BY7">
-        <v>0.1904115798787524</v>
+        <v>0.1880844143926069</v>
       </c>
       <c r="BZ7">
-        <v>0.2854871432329576</v>
+        <v>0.2812376881356292</v>
       </c>
       <c r="CA7">
         <v>0.09753196981883416</v>
@@ -2749,25 +2749,25 @@
         <v>1.5</v>
       </c>
       <c r="M8">
+        <v>2.4</v>
+      </c>
+      <c r="N8">
+        <v>0.3818813079129866</v>
+      </c>
+      <c r="O8">
+        <v>0.4589577140847348</v>
+      </c>
+      <c r="P8">
+        <v>0.691153706272168</v>
+      </c>
+      <c r="Q8">
+        <v>0.2963111239158527</v>
+      </c>
+      <c r="R8">
+        <v>0.5687784837578321</v>
+      </c>
+      <c r="S8">
         <v>2.2</v>
-      </c>
-      <c r="N8">
-        <v>0.4453617714151232</v>
-      </c>
-      <c r="O8">
-        <v>0.3446719997990206</v>
-      </c>
-      <c r="P8">
-        <v>0.7215663649375568</v>
-      </c>
-      <c r="Q8">
-        <v>0.3197630578835952</v>
-      </c>
-      <c r="R8">
-        <v>0.5139157009346884</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>50</v>
       </c>
       <c r="AD8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AE8">
-        <v>0.671854812358212</v>
+        <v>0.7362738570791607</v>
       </c>
       <c r="AF8">
         <v>0.5</v>
       </c>
       <c r="AG8">
-        <v>1.05409255338946</v>
+        <v>1.054092553389459</v>
       </c>
       <c r="AH8">
         <v>100</v>
@@ -2824,7 +2824,7 @@
         <v>60</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>2</v>
       </c>
       <c r="AP8">
+        <v>4</v>
+      </c>
+      <c r="AQ8">
         <v>3</v>
       </c>
-      <c r="AQ8">
-        <v>2</v>
-      </c>
       <c r="AR8">
-        <v>2.115577566273326</v>
+        <v>2.261877543698539</v>
       </c>
       <c r="AS8">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AT8">
-        <v>1.591365479267462</v>
+        <v>2.127260592805486</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AW8">
         <v>1</v>
@@ -2866,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="AZ8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BA8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB8">
         <v>80</v>
@@ -2887,37 +2887,37 @@
         <v>80</v>
       </c>
       <c r="BG8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="BH8">
-        <v>0.8198497637473576</v>
+        <v>0.9642122253007895</v>
       </c>
       <c r="BI8">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="BJ8">
-        <v>0.6900655593423541</v>
+        <v>0.9040262963743212</v>
       </c>
       <c r="BK8">
         <v>80</v>
       </c>
       <c r="BL8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BM8">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BN8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BO8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BP8">
         <v>0</v>
       </c>
       <c r="BQ8">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BR8">
         <v>3</v>
@@ -2926,25 +2926,25 @@
         <v>1</v>
       </c>
       <c r="BT8">
-        <v>-0.8999999999999999</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="BU8">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BV8">
-        <v>1.527525231651947</v>
+        <v>1.261979632400061</v>
       </c>
       <c r="BW8">
         <v>0.2682928727046374</v>
       </c>
       <c r="BX8">
-        <v>0.8975368115521352</v>
+        <v>0.8975368115521354</v>
       </c>
       <c r="BY8">
-        <v>0.2852564188014534</v>
+        <v>0.2922226326642191</v>
       </c>
       <c r="BZ8">
-        <v>0.2992033745315489</v>
+        <v>0.3017393492376462</v>
       </c>
       <c r="CA8">
         <v>0.2530531897135395</v>
@@ -3000,31 +3000,31 @@
         <v>1.8</v>
       </c>
       <c r="M9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>0.6938886664887111</v>
+        <v>0.5408484138857403</v>
       </c>
       <c r="O9">
-        <v>0.3497295445271623</v>
+        <v>0.3834137550534781</v>
       </c>
       <c r="P9">
-        <v>0.761626101712116</v>
+        <v>0.7158346864481619</v>
       </c>
       <c r="Q9">
-        <v>0.4529880123782627</v>
+        <v>0.4203165132712137</v>
       </c>
       <c r="R9">
-        <v>0.5771369730541966</v>
+        <v>0.643536175993611</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -3051,16 +3051,16 @@
         <v>50</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AE9">
-        <v>0.6236095644623233</v>
+        <v>0.5587602701389626</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG9">
-        <v>1.154700538379251</v>
+        <v>1.148670729340852</v>
       </c>
       <c r="AH9">
         <v>100</v>
@@ -3084,25 +3084,25 @@
         <v>40</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP9">
         <v>3</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR9">
-        <v>2.170954045408968</v>
+        <v>2.271563338320109</v>
       </c>
       <c r="AS9">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AT9">
-        <v>2.070491731273211</v>
+        <v>2.223701520317471</v>
       </c>
       <c r="AU9">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AV9">
         <v>1.2</v>
@@ -3251,31 +3251,31 @@
         <v>1.91</v>
       </c>
       <c r="M10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N10">
-        <v>1.040832999733067</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="O10">
-        <v>0.2650616101886309</v>
+        <v>0.2853413304683513</v>
       </c>
       <c r="P10">
-        <v>1.06551835631282</v>
+        <v>0.9918050231309302</v>
       </c>
       <c r="Q10">
-        <v>0.4475417827230631</v>
+        <v>0.4094600248960823</v>
       </c>
       <c r="R10">
-        <v>0.3899543003282869</v>
+        <v>0.3840877673886262</v>
       </c>
       <c r="S10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -3290,10 +3290,10 @@
         <v>60</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0.8198497637473582</v>
       </c>
       <c r="AF10">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AG10">
-        <v>0.6307180135528301</v>
+        <v>0.7959954870644667</v>
       </c>
       <c r="AH10">
         <v>100</v>
@@ -3320,49 +3320,49 @@
         <v>60</v>
       </c>
       <c r="AJ10">
+        <v>40</v>
+      </c>
+      <c r="AK10">
+        <v>40</v>
+      </c>
+      <c r="AL10">
         <v>20</v>
-      </c>
-      <c r="AK10">
-        <v>20</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO10">
         <v>5</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR10">
-        <v>2.497999199359359</v>
+        <v>2.72828568570857</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AT10">
-        <v>1.680673828954686</v>
+        <v>2.232298905469948</v>
       </c>
       <c r="AU10">
-        <v>-0.09999999999999998</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW10">
         <v>1</v>
       </c>
       <c r="AX10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AY10">
         <v>1</v>
@@ -3374,19 +3374,19 @@
         <v>60</v>
       </c>
       <c r="BB10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BC10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BD10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BG10">
         <v>0.7</v>
@@ -3404,7 +3404,7 @@
         <v>100</v>
       </c>
       <c r="BL10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BM10">
         <v>80</v>
@@ -3428,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="BT10">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="BU10">
         <v>0.5</v>
@@ -3502,25 +3502,25 @@
         <v>1.83</v>
       </c>
       <c r="M11">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>0.8926785535678561</v>
+        <v>0.8164965809277259</v>
       </c>
       <c r="O11">
-        <v>0.3294851711188976</v>
+        <v>0.4072629488966754</v>
       </c>
       <c r="P11">
-        <v>0.8766536723163636</v>
+        <v>0.8547887663597252</v>
       </c>
       <c r="Q11">
-        <v>0.4135020072520073</v>
+        <v>0.3584346923679385</v>
       </c>
       <c r="R11">
-        <v>0.4787095908346388</v>
+        <v>0.5786410454668071</v>
       </c>
       <c r="S11">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -3535,40 +3535,40 @@
         <v>100</v>
       </c>
       <c r="X11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Y11">
         <v>70</v>
       </c>
       <c r="Z11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA11">
+        <v>30</v>
+      </c>
+      <c r="AB11">
         <v>20</v>
-      </c>
-      <c r="AB11">
-        <v>10</v>
       </c>
       <c r="AC11">
         <v>40</v>
       </c>
       <c r="AD11">
+        <v>1.6</v>
+      </c>
+      <c r="AE11">
+        <v>0.8936504412303009</v>
+      </c>
+      <c r="AF11">
         <v>1.3</v>
       </c>
-      <c r="AE11">
-        <v>0.8919244682526201</v>
-      </c>
-      <c r="AF11">
-        <v>1.2</v>
-      </c>
       <c r="AG11">
-        <v>1.165343164633502</v>
+        <v>1.090874224932443</v>
       </c>
       <c r="AH11">
         <v>100</v>
       </c>
       <c r="AI11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ11">
         <v>60</v>
@@ -3577,10 +3577,10 @@
         <v>60</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN11">
         <v>40</v>
@@ -3589,31 +3589,31 @@
         <v>4</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR11">
-        <v>2.344800824699738</v>
+        <v>2.718693445349586</v>
       </c>
       <c r="AS11">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AT11">
+        <v>2.27311474868005</v>
+      </c>
+      <c r="AU11">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AV11">
         <v>1.2</v>
       </c>
-      <c r="AT11">
-        <v>1.858707707508507</v>
-      </c>
-      <c r="AU11">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="AV11">
-        <v>1.6</v>
-      </c>
       <c r="AW11">
         <v>1</v>
       </c>
       <c r="AX11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AY11">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>80</v>
       </c>
       <c r="BE11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BF11">
         <v>80</v>
@@ -3646,10 +3646,10 @@
         <v>0.7297563831157801</v>
       </c>
       <c r="BI11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BJ11">
-        <v>0.5773502691896257</v>
+        <v>0.5701042855894592</v>
       </c>
       <c r="BK11">
         <v>90</v>
@@ -3664,7 +3664,7 @@
         <v>70</v>
       </c>
       <c r="BO11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BP11">
         <v>20</v>
@@ -3673,10 +3673,10 @@
         <v>80</v>
       </c>
       <c r="BR11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT11">
         <v>-1</v>
@@ -3688,16 +3688,16 @@
         <v>1.089724735885168</v>
       </c>
       <c r="BW11">
-        <v>0.6486639016575951</v>
+        <v>0.6894482153830854</v>
       </c>
       <c r="BX11">
-        <v>0.7297607649632392</v>
+        <v>0.6774106678623816</v>
       </c>
       <c r="BY11">
-        <v>0.208983487272961</v>
+        <v>0.1747572967967705</v>
       </c>
       <c r="BZ11">
-        <v>0.5458151324521953</v>
+        <v>0.6020390599869924</v>
       </c>
       <c r="CA11">
         <v>0.360893752901933</v>
@@ -3759,19 +3759,19 @@
         <v>0.9491187735373223</v>
       </c>
       <c r="O12">
-        <v>0.3749018033559757</v>
+        <v>0.3939494224035948</v>
       </c>
       <c r="P12">
-        <v>0.7010028520726771</v>
+        <v>0.7332751672863411</v>
       </c>
       <c r="Q12">
-        <v>0.2519150659120693</v>
+        <v>0.2476713421561504</v>
       </c>
       <c r="R12">
-        <v>0.2227002881403785</v>
+        <v>0.24762607228664</v>
       </c>
       <c r="S12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>40</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3804,10 +3804,10 @@
         <v>60</v>
       </c>
       <c r="AD12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.8198497637473579</v>
+        <v>0.9428090415820635</v>
       </c>
       <c r="AF12">
         <v>1.2</v>
@@ -3825,10 +3825,10 @@
         <v>60</v>
       </c>
       <c r="AK12">
+        <v>40</v>
+      </c>
+      <c r="AL12">
         <v>20</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -3837,34 +3837,34 @@
         <v>60</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12">
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>2.293030250570735</v>
+        <v>1.960545789882223</v>
       </c>
       <c r="AS12">
-        <v>-0.09999999999999987</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="AT12">
-        <v>1.370320319406298</v>
+        <v>1.642014940362165</v>
       </c>
       <c r="AU12">
-        <v>0.09999999999999998</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="AV12">
+        <v>0.8</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
         <v>1.2</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>1.8</v>
       </c>
       <c r="AY12">
         <v>1</v>
@@ -3876,10 +3876,10 @@
         <v>60</v>
       </c>
       <c r="BB12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BC12">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BD12">
         <v>40</v>
@@ -3891,22 +3891,22 @@
         <v>40</v>
       </c>
       <c r="BG12">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BH12">
-        <v>0.5105203241514897</v>
+        <v>0.6231470032184588</v>
       </c>
       <c r="BI12">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="BJ12">
-        <v>1.385349024322722</v>
+        <v>1.229774645621036</v>
       </c>
       <c r="BK12">
         <v>100</v>
       </c>
       <c r="BL12">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BM12">
         <v>80</v>
@@ -3924,31 +3924,31 @@
         <v>30</v>
       </c>
       <c r="BR12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT12">
-        <v>0.5999999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="BU12">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BV12">
-        <v>0.7235645834140799</v>
+        <v>0.8926785535678562</v>
       </c>
       <c r="BW12">
-        <v>0.5847443990957005</v>
+        <v>0.5133158276671292</v>
       </c>
       <c r="BX12">
-        <v>0.6554675676677137</v>
+        <v>0.8133639956364281</v>
       </c>
       <c r="BY12">
-        <v>0.2217854161304239</v>
+        <v>0.2290490225861743</v>
       </c>
       <c r="BZ12">
-        <v>0.5031009760465529</v>
+        <v>0.5129993311005774</v>
       </c>
       <c r="CA12">
         <v>0.1533038359458187</v>
@@ -4004,25 +4004,25 @@
         <v>1.66</v>
       </c>
       <c r="M13">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="N13">
-        <v>1.181818181818183</v>
+        <v>1.090572836827526</v>
       </c>
       <c r="O13">
-        <v>0.4941793415667214</v>
+        <v>0.4920307099764655</v>
       </c>
       <c r="P13">
-        <v>0.5937619303189114</v>
+        <v>0.5959788745381467</v>
       </c>
       <c r="Q13">
-        <v>0.2794350313421346</v>
+        <v>0.2820736100576745</v>
       </c>
       <c r="R13">
-        <v>0.3520525822853383</v>
+        <v>0.3434260007994211</v>
       </c>
       <c r="S13">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>80</v>
       </c>
       <c r="Y13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z13">
         <v>60</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD13">
         <v>1.2</v>
@@ -4061,22 +4061,22 @@
         <v>0.6573421981221796</v>
       </c>
       <c r="AF13">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AG13">
-        <v>0.6900655593423544</v>
+        <v>0.8148845426702924</v>
       </c>
       <c r="AH13">
         <v>100</v>
       </c>
       <c r="AI13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL13">
         <v>20</v>
@@ -4097,25 +4097,25 @@
         <v>6</v>
       </c>
       <c r="AR13">
-        <v>2.769693845669908</v>
+        <v>2.774210684500837</v>
       </c>
       <c r="AS13">
         <v>-0.09999999999999987</v>
       </c>
       <c r="AT13">
-        <v>1.664405673517528</v>
+        <v>2.105371814955382</v>
       </c>
       <c r="AU13">
-        <v>0.2999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AW13">
         <v>1</v>
       </c>
       <c r="AX13">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AY13">
         <v>1</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="BF13">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BG13">
         <v>1.2</v>
@@ -4148,10 +4148,10 @@
         <v>0.8606629658238706</v>
       </c>
       <c r="BI13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BJ13">
-        <v>0.6573421981221798</v>
+        <v>0.6900655593423544</v>
       </c>
       <c r="BK13">
         <v>100</v>
@@ -4160,10 +4160,10 @@
         <v>80</v>
       </c>
       <c r="BM13">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BN13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BO13">
         <v>10</v>
@@ -4181,7 +4181,7 @@
         <v>5</v>
       </c>
       <c r="BT13">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BU13">
         <v>1.7</v>
@@ -4190,10 +4190,10 @@
         <v>0.7913896498278654</v>
       </c>
       <c r="BW13">
-        <v>0.611328613017517</v>
+        <v>0.6113286130175168</v>
       </c>
       <c r="BX13">
-        <v>0.7523051536737604</v>
+        <v>0.7523051536737605</v>
       </c>
       <c r="BY13">
         <v>0.1441789061488966</v>
@@ -4261,16 +4261,16 @@
         <v>0.5677270907634908</v>
       </c>
       <c r="O14">
-        <v>0.375967000221226</v>
+        <v>0.4079713785153569</v>
       </c>
       <c r="P14">
-        <v>0.7797482038222026</v>
+        <v>0.7503642492203729</v>
       </c>
       <c r="Q14">
-        <v>0.3264892325666682</v>
+        <v>0.3042313978088335</v>
       </c>
       <c r="R14">
-        <v>0.4467371081059449</v>
+        <v>0.4961925138587318</v>
       </c>
       <c r="S14">
         <v>1.6</v>
@@ -4279,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>50</v>
       </c>
       <c r="AA14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB14">
         <v>10</v>
@@ -4306,10 +4306,10 @@
         <v>30</v>
       </c>
       <c r="AD14">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AE14">
-        <v>0.6820598874872975</v>
+        <v>0.6718548123582125</v>
       </c>
       <c r="AF14">
         <v>0.6</v>
@@ -4330,10 +4330,10 @@
         <v>60</v>
       </c>
       <c r="AL14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>40</v>
@@ -4342,31 +4342,31 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR14">
-        <v>2.41518997864874</v>
+        <v>2.623772308166433</v>
       </c>
       <c r="AS14">
-        <v>1.4</v>
+        <v>0.3000000000000003</v>
       </c>
       <c r="AT14">
-        <v>2.388774403034124</v>
+        <v>1.918241742484708</v>
       </c>
       <c r="AU14">
-        <v>0.8999999999999999</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="AV14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AW14">
         <v>1</v>
       </c>
       <c r="AX14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AY14">
         <v>1</v>
@@ -4384,25 +4384,25 @@
         <v>60</v>
       </c>
       <c r="BD14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BE14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BF14">
         <v>80</v>
       </c>
       <c r="BG14">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="BH14">
-        <v>1.245745744914816</v>
+        <v>1.028841161422507</v>
       </c>
       <c r="BI14">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="BJ14">
-        <v>0.3970285633591482</v>
+        <v>0.5233836452693437</v>
       </c>
       <c r="BK14">
         <v>100</v>
@@ -4414,19 +4414,19 @@
         <v>80</v>
       </c>
       <c r="BN14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BO14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BP14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BQ14">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BR14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS14">
         <v>5</v>
@@ -4441,16 +4441,16 @@
         <v>1.843908891458578</v>
       </c>
       <c r="BW14">
-        <v>0.5386867409377269</v>
+        <v>0.6339248361758222</v>
       </c>
       <c r="BX14">
-        <v>1.142919507835479</v>
+        <v>0.9439598596484818</v>
       </c>
       <c r="BY14">
-        <v>0.1859764153240502</v>
+        <v>0.1789243591146035</v>
       </c>
       <c r="BZ14">
-        <v>0.4332845627968092</v>
+        <v>0.427985164079128</v>
       </c>
       <c r="CA14">
         <v>0.3681208577925503</v>
@@ -5026,13 +5026,13 @@
         <v>0.3052433651879006</v>
       </c>
       <c r="S17">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
       <c r="U17">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -5047,7 +5047,7 @@
         <v>80</v>
       </c>
       <c r="Z17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA17">
         <v>10</v>
@@ -5065,10 +5065,10 @@
         <v>0.6900655593423543</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AG17">
-        <v>0.9428090415820634</v>
+        <v>1.000459031467829</v>
       </c>
       <c r="AH17">
         <v>100</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -5101,25 +5101,25 @@
         <v>6</v>
       </c>
       <c r="AR17">
-        <v>2.712808943575083</v>
+        <v>2.640989254491567</v>
       </c>
       <c r="AS17">
-        <v>-0.1000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AT17">
-        <v>2.125593591807702</v>
+        <v>2.041059482852436</v>
       </c>
       <c r="AU17">
-        <v>0.09999999999999987</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AW17">
         <v>1</v>
       </c>
       <c r="AX17">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AY17">
         <v>1</v>
@@ -5128,28 +5128,28 @@
         <v>100</v>
       </c>
       <c r="BA17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BC17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BD17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE17">
         <v>0</v>
       </c>
       <c r="BF17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BG17">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH17">
-        <v>0.5191911982388869</v>
+        <v>0.6573421981221796</v>
       </c>
       <c r="BI17">
         <v>1.5</v>
@@ -5161,10 +5161,10 @@
         <v>100</v>
       </c>
       <c r="BL17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BM17">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BN17">
         <v>50</v>
@@ -5176,34 +5176,34 @@
         <v>10</v>
       </c>
       <c r="BQ17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BR17">
         <v>1</v>
       </c>
       <c r="BS17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BT17">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="BU17">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BV17">
-        <v>0.9134109297721474</v>
+        <v>1.040832999733067</v>
       </c>
       <c r="BW17">
-        <v>0.7230983521043219</v>
+        <v>0.6516697806757505</v>
       </c>
       <c r="BX17">
-        <v>0.4763398299750556</v>
+        <v>0.6248653282075076</v>
       </c>
       <c r="BY17">
-        <v>0.1730062492833391</v>
+        <v>0.1790070304437565</v>
       </c>
       <c r="BZ17">
-        <v>0.4354034160913627</v>
+        <v>0.4348562940392732</v>
       </c>
       <c r="CA17">
         <v>0.2857401106385296</v>
@@ -5349,19 +5349,19 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR18">
-        <v>2.36619037896906</v>
+        <v>2.541640786499873</v>
       </c>
       <c r="AS18">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AT18">
-        <v>1.729041111100012</v>
+        <v>1.775453492325164</v>
       </c>
       <c r="AU18">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AV18">
         <v>0.4</v>
@@ -5761,31 +5761,31 @@
         <v>1.91</v>
       </c>
       <c r="M20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>1.181818181818182</v>
+        <v>1.341640786499874</v>
       </c>
       <c r="O20">
-        <v>0.3577009621254542</v>
+        <v>0.3566928976093252</v>
       </c>
       <c r="P20">
-        <v>1.107762510873898</v>
+        <v>1.11117600940459</v>
       </c>
       <c r="Q20">
-        <v>0.2170956160241874</v>
+        <v>0.2243518518518518</v>
       </c>
       <c r="R20">
-        <v>0.461518838534177</v>
+        <v>0.5086434594036078</v>
       </c>
       <c r="S20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -5794,16 +5794,16 @@
         <v>100</v>
       </c>
       <c r="X20">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Y20">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z20">
+        <v>40</v>
+      </c>
+      <c r="AA20">
         <v>30</v>
-      </c>
-      <c r="AA20">
-        <v>20</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -5818,31 +5818,31 @@
         <v>1.154700538379251</v>
       </c>
       <c r="AF20">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AG20">
-        <v>0.7297563831157798</v>
+        <v>0.7678340712665287</v>
       </c>
       <c r="AH20">
         <v>100</v>
       </c>
       <c r="AI20">
+        <v>60</v>
+      </c>
+      <c r="AJ20">
+        <v>60</v>
+      </c>
+      <c r="AK20">
         <v>40</v>
       </c>
-      <c r="AJ20">
-        <v>60</v>
-      </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>20</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO20">
         <v>6</v>
@@ -5854,16 +5854,16 @@
         <v>6</v>
       </c>
       <c r="AR20">
-        <v>2.674772708486752</v>
+        <v>2.626164044366387</v>
       </c>
       <c r="AS20">
-        <v>-0.7999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="AT20">
-        <v>2.660245843797414</v>
+        <v>2.289992962774344</v>
       </c>
       <c r="AU20">
-        <v>-0.6000000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="AV20">
         <v>0.4</v>
@@ -5881,7 +5881,7 @@
         <v>60</v>
       </c>
       <c r="BA20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BB20">
         <v>40</v>
@@ -5914,7 +5914,7 @@
         <v>80</v>
       </c>
       <c r="BL20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BM20">
         <v>60</v>
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="BT20">
-        <v>-0.3</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="BU20">
         <v>1</v>
@@ -5947,16 +5947,16 @@
         <v>0.7745966692414826</v>
       </c>
       <c r="BW20">
-        <v>0.3034898050129143</v>
+        <v>0.2971562371029917</v>
       </c>
       <c r="BX20">
-        <v>0.7519262483257725</v>
+        <v>0.7608050304872858</v>
       </c>
       <c r="BY20">
-        <v>0.3168119108191249</v>
+        <v>0.325674016455424</v>
       </c>
       <c r="BZ20">
-        <v>0.2203534378133626</v>
+        <v>0.2266183376090135</v>
       </c>
       <c r="CA20">
         <v>0.1349934614125654</v>
@@ -6011,204 +6011,6 @@
       <c r="L21">
         <v>1.86</v>
       </c>
-      <c r="M21">
-        <v>2.4</v>
-      </c>
-      <c r="N21">
-        <v>0.381881307912987</v>
-      </c>
-      <c r="O21">
-        <v>0.2816933926782291</v>
-      </c>
-      <c r="P21">
-        <v>0.9237589263854962</v>
-      </c>
-      <c r="Q21">
-        <v>0.3184918502236985</v>
-      </c>
-      <c r="R21">
-        <v>0.3961694251274575</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>0.2</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>70</v>
-      </c>
-      <c r="X21">
-        <v>60</v>
-      </c>
-      <c r="Y21">
-        <v>60</v>
-      </c>
-      <c r="Z21">
-        <v>50</v>
-      </c>
-      <c r="AA21">
-        <v>30</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>40</v>
-      </c>
-      <c r="AD21">
-        <v>1.7</v>
-      </c>
-      <c r="AE21">
-        <v>0.834197936713045</v>
-      </c>
-      <c r="AF21">
-        <v>0.4</v>
-      </c>
-      <c r="AG21">
-        <v>1.290994448735804</v>
-      </c>
-      <c r="AH21">
-        <v>80</v>
-      </c>
-      <c r="AI21">
-        <v>80</v>
-      </c>
-      <c r="AJ21">
-        <v>60</v>
-      </c>
-      <c r="AK21">
-        <v>40</v>
-      </c>
-      <c r="AL21">
-        <v>40</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>20</v>
-      </c>
-      <c r="AO21">
-        <v>5</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21">
-        <v>2</v>
-      </c>
-      <c r="AR21">
-        <v>2.082705517960229</v>
-      </c>
-      <c r="AS21">
-        <v>1.6</v>
-      </c>
-      <c r="AT21">
-        <v>2.450932051400821</v>
-      </c>
-      <c r="AU21">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AV21">
-        <v>1.8</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21">
-        <v>1</v>
-      </c>
-      <c r="AZ21">
-        <v>100</v>
-      </c>
-      <c r="BA21">
-        <v>80</v>
-      </c>
-      <c r="BB21">
-        <v>80</v>
-      </c>
-      <c r="BC21">
-        <v>40</v>
-      </c>
-      <c r="BD21">
-        <v>40</v>
-      </c>
-      <c r="BE21">
-        <v>20</v>
-      </c>
-      <c r="BF21">
-        <v>60</v>
-      </c>
-      <c r="BG21">
-        <v>1.4</v>
-      </c>
-      <c r="BH21">
-        <v>0.7678340712665287</v>
-      </c>
-      <c r="BI21">
-        <v>1</v>
-      </c>
-      <c r="BJ21">
-        <v>1.154700538379251</v>
-      </c>
-      <c r="BK21">
-        <v>80</v>
-      </c>
-      <c r="BL21">
-        <v>50</v>
-      </c>
-      <c r="BM21">
-        <v>60</v>
-      </c>
-      <c r="BN21">
-        <v>40</v>
-      </c>
-      <c r="BO21">
-        <v>40</v>
-      </c>
-      <c r="BP21">
-        <v>20</v>
-      </c>
-      <c r="BQ21">
-        <v>50</v>
-      </c>
-      <c r="BR21">
-        <v>3</v>
-      </c>
-      <c r="BS21">
-        <v>4</v>
-      </c>
-      <c r="BT21">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="BU21">
-        <v>1.9</v>
-      </c>
-      <c r="BV21">
-        <v>0.597779825873713</v>
-      </c>
-      <c r="BW21">
-        <v>0.5028779200184802</v>
-      </c>
-      <c r="BX21">
-        <v>0.8397626782075761</v>
-      </c>
-      <c r="BY21">
-        <v>0.3130845508478764</v>
-      </c>
-      <c r="BZ21">
-        <v>0.5843312611918016</v>
-      </c>
       <c r="CA21">
         <v>0.264726793797432</v>
       </c>
@@ -6263,31 +6065,31 @@
         <v>2.1</v>
       </c>
       <c r="M22">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="N22">
-        <v>0.9689042833036098</v>
+        <v>0.7913896498278653</v>
       </c>
       <c r="O22">
-        <v>0.6026652505534493</v>
+        <v>0.6426652505534494</v>
       </c>
       <c r="P22">
-        <v>0.8614600598149715</v>
+        <v>0.7554735864530727</v>
       </c>
       <c r="Q22">
-        <v>0.2997208294265855</v>
+        <v>0.3027293356703999</v>
       </c>
       <c r="R22">
-        <v>0.7133503704401197</v>
+        <v>0.6664624067938263</v>
       </c>
       <c r="S22">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -6296,13 +6098,13 @@
         <v>100</v>
       </c>
       <c r="X22">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Y22">
         <v>90</v>
       </c>
       <c r="Z22">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA22">
         <v>50</v>
@@ -6314,67 +6116,67 @@
         <v>70</v>
       </c>
       <c r="AD22">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AE22">
-        <v>0.9899978494928683</v>
+        <v>0.8463073229366049</v>
       </c>
       <c r="AF22">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AG22">
-        <v>0.7071067811865477</v>
+        <v>0.8790788929984273</v>
       </c>
       <c r="AH22">
         <v>100</v>
       </c>
       <c r="AI22">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ22">
         <v>100</v>
       </c>
       <c r="AK22">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL22">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN22">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AO22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP22">
         <v>6</v>
       </c>
       <c r="AQ22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR22">
-        <v>2.784751682333623</v>
+        <v>2.511552783676431</v>
       </c>
       <c r="AS22">
-        <v>-0.2000000000000002</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AT22">
-        <v>3.111791042923667</v>
+        <v>2.895190140804704</v>
       </c>
       <c r="AU22">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="AV22">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AW22">
         <v>1</v>
       </c>
       <c r="AX22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AY22">
         <v>1</v>
@@ -6383,40 +6185,40 @@
         <v>100</v>
       </c>
       <c r="BA22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BB22">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BC22">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BD22">
         <v>40</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BF22">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="BG22">
         <v>0.6</v>
       </c>
       <c r="BH22">
-        <v>1.405456737852613</v>
+        <v>1.165343164633501</v>
       </c>
       <c r="BI22">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="BJ22">
-        <v>0.6356417261637282</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="BK22">
         <v>100</v>
       </c>
       <c r="BL22">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BM22">
         <v>70</v>
@@ -6425,40 +6227,40 @@
         <v>70</v>
       </c>
       <c r="BO22">
+        <v>50</v>
+      </c>
+      <c r="BP22">
+        <v>10</v>
+      </c>
+      <c r="BQ22">
         <v>40</v>
       </c>
-      <c r="BP22">
-        <v>0</v>
-      </c>
-      <c r="BQ22">
-        <v>30</v>
-      </c>
       <c r="BR22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT22">
-        <v>-0.8000000000000003</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="BU22">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="BV22">
-        <v>1.69633458386256</v>
+        <v>2.29128784747792</v>
       </c>
       <c r="BW22">
-        <v>0.3177511150611432</v>
+        <v>0.3376171349271631</v>
       </c>
       <c r="BX22">
-        <v>1.426237780053998</v>
+        <v>1.174711044864492</v>
       </c>
       <c r="BY22">
-        <v>0.2297373678952627</v>
+        <v>0.2333137038400196</v>
       </c>
       <c r="BZ22">
-        <v>0.7224146167432626</v>
+        <v>0.6529979609763297</v>
       </c>
       <c r="CA22">
         <v>0.6029885915895675</v>
@@ -6514,25 +6316,25 @@
         <v>1.67</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>0.3076923076923079</v>
+        <v>0.2142857142857145</v>
       </c>
       <c r="O23">
-        <v>0.3966362341362341</v>
+        <v>0.4149054649054649</v>
       </c>
       <c r="P23">
-        <v>1.248258295493004</v>
+        <v>1.176327473721991</v>
       </c>
       <c r="Q23">
-        <v>0.4958855469858817</v>
+        <v>0.454030910394403</v>
       </c>
       <c r="R23">
-        <v>0.4875097606724673</v>
+        <v>0.5059976462065641</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -6562,19 +6364,19 @@
         <v>10</v>
       </c>
       <c r="AC23">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AE23">
-        <v>0.7071067811865476</v>
+        <v>0.6525334854315704</v>
       </c>
       <c r="AF23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AG23">
-        <v>1.290994448735807</v>
+        <v>1.610152971798829</v>
       </c>
       <c r="AH23">
         <v>100</v>
@@ -6586,10 +6388,10 @@
         <v>80</v>
       </c>
       <c r="AK23">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -6601,25 +6403,25 @@
         <v>6</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23">
-        <v>2</v>
+        <v>1.956465996625054</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT23">
-        <v>2.473563467844476</v>
+        <v>2.036986986072965</v>
       </c>
       <c r="AU23">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AV23">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AW23">
         <v>1</v>
@@ -6637,25 +6439,25 @@
         <v>60</v>
       </c>
       <c r="BB23">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BC23">
+        <v>40</v>
+      </c>
+      <c r="BD23">
         <v>20</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
       </c>
       <c r="BE23">
         <v>0</v>
       </c>
       <c r="BF23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BG23">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="BH23">
-        <v>1.176103717640807</v>
+        <v>1.222783260682902</v>
       </c>
       <c r="BI23">
         <v>1.3</v>
@@ -6673,10 +6475,10 @@
         <v>80</v>
       </c>
       <c r="BN23">
+        <v>30</v>
+      </c>
+      <c r="BO23">
         <v>20</v>
-      </c>
-      <c r="BO23">
-        <v>10</v>
       </c>
       <c r="BP23">
         <v>0</v>
@@ -6685,31 +6487,31 @@
         <v>40</v>
       </c>
       <c r="BR23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BU23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BV23">
-        <v>1.089724735885168</v>
+        <v>1.095445115010332</v>
       </c>
       <c r="BW23">
-        <v>0.3880672549089653</v>
+        <v>0.5311361103581217</v>
       </c>
       <c r="BX23">
-        <v>1.039681410709976</v>
+        <v>1.273855400822838</v>
       </c>
       <c r="BY23">
-        <v>0.1743215565796211</v>
+        <v>0.1554980271678564</v>
       </c>
       <c r="BZ23">
-        <v>0.2270357866261291</v>
+        <v>0.4326812753951657</v>
       </c>
       <c r="CA23">
         <v>0.6277399626711916</v>
@@ -6765,31 +6567,31 @@
         <v>1.8</v>
       </c>
       <c r="M24">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N24">
-        <v>0.7235645834140801</v>
+        <v>0.8926785535678564</v>
       </c>
       <c r="O24">
-        <v>0.4692318275813547</v>
+        <v>0.4493159790540056</v>
       </c>
       <c r="P24">
-        <v>0.6787373703033638</v>
+        <v>0.713968897171522</v>
       </c>
       <c r="Q24">
-        <v>0.307743823756818</v>
+        <v>0.3347320522954342</v>
       </c>
       <c r="R24">
-        <v>0.5755992439560981</v>
+        <v>0.5393040496077874</v>
       </c>
       <c r="S24">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -6807,25 +6609,25 @@
         <v>70</v>
       </c>
       <c r="AA24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD24">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AE24">
-        <v>0.7118052168020873</v>
+        <v>0.795122708657693</v>
       </c>
       <c r="AF24">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AG24">
-        <v>1.090874224932443</v>
+        <v>0.9728833730787922</v>
       </c>
       <c r="AH24">
         <v>100</v>
@@ -6852,22 +6654,22 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ24">
         <v>6</v>
       </c>
       <c r="AR24">
-        <v>2.844466554156659</v>
+        <v>2.784751682333624</v>
       </c>
       <c r="AS24">
-        <v>0.7</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="AT24">
-        <v>2.914805466400312</v>
+        <v>3.515330315335829</v>
       </c>
       <c r="AU24">
-        <v>1.7</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -6906,7 +6708,7 @@
         <v>1.1</v>
       </c>
       <c r="BH24">
-        <v>0.9040262963743207</v>
+        <v>0.904026296374321</v>
       </c>
       <c r="BI24">
         <v>1</v>
@@ -6942,7 +6744,7 @@
         <v>6</v>
       </c>
       <c r="BT24">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="BU24">
         <v>1.4</v>
@@ -7769,31 +7571,31 @@
         <v>1.8</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N28">
-        <v>0.9134109297721474</v>
+        <v>0.7953949089757175</v>
       </c>
       <c r="O28">
-        <v>0.3521500195174988</v>
+        <v>0.4137661811336605</v>
       </c>
       <c r="P28">
-        <v>1.253242116962166</v>
+        <v>1.083457574216644</v>
       </c>
       <c r="Q28">
-        <v>0.3331684188827046</v>
+        <v>0.3399410816722569</v>
       </c>
       <c r="R28">
-        <v>0.4484190942041816</v>
+        <v>0.4267717760460112</v>
       </c>
       <c r="S28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -7805,7 +7607,7 @@
         <v>70</v>
       </c>
       <c r="Y28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z28">
         <v>40</v>
@@ -7817,31 +7619,31 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AD28">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AE28">
-        <v>1.330243333042072</v>
+        <v>1.088380908852604</v>
       </c>
       <c r="AF28">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AG28">
-        <v>1.419115530493867</v>
+        <v>1.176103717640807</v>
       </c>
       <c r="AH28">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI28">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ28">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AK28">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -7850,103 +7652,103 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AO28">
         <v>6</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ28">
         <v>5</v>
       </c>
       <c r="AR28">
-        <v>2.529074995203666</v>
+        <v>2.488325581052756</v>
       </c>
       <c r="AS28">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="AT28">
-        <v>2.145902297788378</v>
+        <v>2.145902297788379</v>
       </c>
       <c r="AU28">
-        <v>-0.4</v>
+        <v>-0.5999999999999999</v>
       </c>
       <c r="AV28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AW28">
         <v>1</v>
       </c>
       <c r="AX28">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AY28">
         <v>1</v>
       </c>
       <c r="AZ28">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BA28">
+        <v>80</v>
+      </c>
+      <c r="BB28">
+        <v>80</v>
+      </c>
+      <c r="BC28">
+        <v>80</v>
+      </c>
+      <c r="BD28">
+        <v>60</v>
+      </c>
+      <c r="BE28">
         <v>40</v>
       </c>
-      <c r="BB28">
-        <v>60</v>
-      </c>
-      <c r="BC28">
-        <v>40</v>
-      </c>
-      <c r="BD28">
-        <v>20</v>
-      </c>
-      <c r="BE28">
-        <v>20</v>
-      </c>
       <c r="BF28">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BG28">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="BH28">
-        <v>1.414213562373095</v>
+        <v>0.9860132971832691</v>
       </c>
       <c r="BI28">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BJ28">
-        <v>0.6236095644623236</v>
+        <v>0.6813135810749659</v>
       </c>
       <c r="BK28">
         <v>90</v>
       </c>
       <c r="BL28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BM28">
         <v>70</v>
       </c>
       <c r="BN28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BO28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BP28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BQ28">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BR28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BT28">
-        <v>-1.3</v>
+        <v>-0.6999999999999997</v>
       </c>
       <c r="BU28">
         <v>0.2</v>
@@ -7955,16 +7757,16 @@
         <v>1.999999999999997</v>
       </c>
       <c r="BW28">
-        <v>0.2638072681079413</v>
+        <v>0.4529241982015169</v>
       </c>
       <c r="BX28">
-        <v>1.63602575094741</v>
+        <v>1.106387589351902</v>
       </c>
       <c r="BY28">
-        <v>0.3139654226610748</v>
+        <v>0.2675113399751081</v>
       </c>
       <c r="BZ28">
-        <v>0.4909960807362643</v>
+        <v>0.5481521236502563</v>
       </c>
       <c r="CA28">
         <v>0.3635332231910157</v>
@@ -8026,25 +7828,25 @@
         <v>0.7499999999999999</v>
       </c>
       <c r="O29">
-        <v>0.5053687375401525</v>
+        <v>0.5003562062118317</v>
       </c>
       <c r="P29">
-        <v>1.267914555712207</v>
+        <v>1.280641590304344</v>
       </c>
       <c r="Q29">
-        <v>0.2886788968316245</v>
+        <v>0.2929888045488945</v>
       </c>
       <c r="R29">
-        <v>0.653481920675533</v>
+        <v>0.6427182066600525</v>
       </c>
       <c r="S29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -8065,16 +7867,16 @@
         <v>30</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC29">
         <v>30</v>
       </c>
       <c r="AD29">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AE29">
-        <v>1.165343164633502</v>
+        <v>1.090874224932443</v>
       </c>
       <c r="AF29">
         <v>0.6</v>
@@ -8083,25 +7885,25 @@
         <v>1.610152971798827</v>
       </c>
       <c r="AH29">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI29">
+        <v>60</v>
+      </c>
+      <c r="AJ29">
+        <v>60</v>
+      </c>
+      <c r="AK29">
+        <v>20</v>
+      </c>
+      <c r="AL29">
+        <v>20</v>
+      </c>
+      <c r="AM29">
+        <v>20</v>
+      </c>
+      <c r="AN29">
         <v>40</v>
-      </c>
-      <c r="AJ29">
-        <v>40</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>20</v>
       </c>
       <c r="AO29">
         <v>6</v>
@@ -8110,28 +7912,28 @@
         <v>5</v>
       </c>
       <c r="AQ29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR29">
-        <v>2.365922381636102</v>
+        <v>2.387434208703792</v>
       </c>
       <c r="AS29">
-        <v>0.4750000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="AT29">
-        <v>2.563376542581637</v>
+        <v>2.596647794389756</v>
       </c>
       <c r="AU29">
-        <v>-0.05000000000000004</v>
+        <v>-0.2</v>
       </c>
       <c r="AV29">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AW29">
         <v>1</v>
       </c>
       <c r="AX29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AY29">
         <v>1</v>
@@ -8149,73 +7951,73 @@
         <v>80</v>
       </c>
       <c r="BD29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BE29">
         <v>20</v>
       </c>
       <c r="BF29">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BG29">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BH29">
-        <v>0.834197936713045</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="BI29">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="BJ29">
-        <v>0.9040262963743205</v>
+        <v>0.8606629658238701</v>
       </c>
       <c r="BK29">
         <v>90</v>
       </c>
       <c r="BL29">
+        <v>80</v>
+      </c>
+      <c r="BM29">
+        <v>80</v>
+      </c>
+      <c r="BN29">
         <v>70</v>
       </c>
-      <c r="BM29">
+      <c r="BO29">
+        <v>40</v>
+      </c>
+      <c r="BP29">
+        <v>30</v>
+      </c>
+      <c r="BQ29">
         <v>70</v>
       </c>
-      <c r="BN29">
-        <v>60</v>
-      </c>
-      <c r="BO29">
-        <v>30</v>
-      </c>
-      <c r="BP29">
-        <v>20</v>
-      </c>
-      <c r="BQ29">
-        <v>60</v>
-      </c>
       <c r="BR29">
+        <v>1</v>
+      </c>
+      <c r="BS29">
+        <v>5</v>
+      </c>
+      <c r="BT29">
+        <v>-0.2</v>
+      </c>
+      <c r="BU29">
         <v>2</v>
       </c>
-      <c r="BS29">
-        <v>4</v>
-      </c>
-      <c r="BT29">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="BU29">
-        <v>1.7</v>
-      </c>
       <c r="BV29">
-        <v>0.7913896498278654</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="BW29">
-        <v>0.502276903892189</v>
+        <v>0.5630396705373085</v>
       </c>
       <c r="BX29">
-        <v>0.7570945166708114</v>
+        <v>0.6576262754102032</v>
       </c>
       <c r="BY29">
-        <v>0.2766970331023126</v>
+        <v>0.2984220541156359</v>
       </c>
       <c r="BZ29">
-        <v>0.469653515371065</v>
+        <v>0.5239223565217653</v>
       </c>
       <c r="CA29">
         <v>0.1237508348444225</v>
@@ -8271,22 +8073,22 @@
         <v>2</v>
       </c>
       <c r="M30">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>1.040832999733067</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="O30">
-        <v>0.5091324430243719</v>
+        <v>0.5053445642364931</v>
       </c>
       <c r="P30">
-        <v>0.7518816536984569</v>
+        <v>0.7589188019559632</v>
       </c>
       <c r="Q30">
-        <v>0.2712918275418276</v>
+        <v>0.2756321053196053</v>
       </c>
       <c r="R30">
-        <v>0.4311139051325924</v>
+        <v>0.4318518768029655</v>
       </c>
       <c r="S30">
         <v>1.8</v>
@@ -8295,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -8304,13 +8106,13 @@
         <v>80</v>
       </c>
       <c r="X30">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y30">
         <v>80</v>
       </c>
       <c r="Z30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA30">
         <v>30</v>
@@ -8328,10 +8130,10 @@
         <v>0.6900655593423539</v>
       </c>
       <c r="AF30">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AG30">
-        <v>1.223355483682393</v>
+        <v>1.143958904554111</v>
       </c>
       <c r="AH30">
         <v>100</v>
@@ -8346,10 +8148,10 @@
         <v>60</v>
       </c>
       <c r="AL30">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AM30">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AN30">
         <v>60</v>
@@ -8364,25 +8166,25 @@
         <v>2</v>
       </c>
       <c r="AR30">
-        <v>2.170954045408969</v>
+        <v>2.216515138991168</v>
       </c>
       <c r="AS30">
-        <v>0.7</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="AT30">
-        <v>2.299425116412628</v>
+        <v>1.885028366551977</v>
       </c>
       <c r="AU30">
-        <v>0.3999999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="AV30">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AW30">
         <v>1</v>
       </c>
       <c r="AX30">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AY30">
         <v>1</v>
@@ -8397,7 +8199,7 @@
         <v>60</v>
       </c>
       <c r="BC30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BD30">
         <v>0</v>
@@ -8406,19 +8208,19 @@
         <v>0</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BG30">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="BH30">
-        <v>0.9860132971832695</v>
+        <v>0.9728833730787926</v>
       </c>
       <c r="BI30">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BJ30">
-        <v>0.9460770203292445</v>
+        <v>1.000459031467829</v>
       </c>
       <c r="BK30">
         <v>90</v>
@@ -8445,28 +8247,28 @@
         <v>4</v>
       </c>
       <c r="BS30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT30">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BU30">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="BV30">
-        <v>0.9689042833036097</v>
+        <v>0.7913896498278653</v>
       </c>
       <c r="BW30">
-        <v>0.4011003946097981</v>
+        <v>0.513316012564297</v>
       </c>
       <c r="BX30">
-        <v>1.023151192650475</v>
+        <v>1.012135983027834</v>
       </c>
       <c r="BY30">
-        <v>0.2451758595721444</v>
+        <v>0.1885883122725228</v>
       </c>
       <c r="BZ30">
-        <v>0.4838711912283947</v>
+        <v>0.6149611049236884</v>
       </c>
       <c r="CA30">
         <v>0.2125680718856554</v>
@@ -8522,22 +8324,22 @@
         <v>2.1</v>
       </c>
       <c r="M31">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="N31">
-        <v>1.090572836827525</v>
+        <v>0.7913896498278654</v>
       </c>
       <c r="O31">
-        <v>0.4358052712555512</v>
+        <v>0.4175157975713407</v>
       </c>
       <c r="P31">
-        <v>0.6614882815233516</v>
+        <v>0.7818653881865877</v>
       </c>
       <c r="Q31">
-        <v>0.2907963262169461</v>
+        <v>0.3531409247134392</v>
       </c>
       <c r="R31">
-        <v>0.3545053340970784</v>
+        <v>0.614211031023646</v>
       </c>
       <c r="S31">
         <v>1.4</v>
@@ -8546,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -8555,40 +8357,40 @@
         <v>100</v>
       </c>
       <c r="X31">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y31">
         <v>80</v>
       </c>
       <c r="Z31">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA31">
         <v>20</v>
       </c>
       <c r="AB31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC31">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD31">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AE31">
-        <v>0.6900655593423541</v>
+        <v>0.7905694150420948</v>
       </c>
       <c r="AF31">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>0.9035079029052512</v>
+        <v>1.154700538379251</v>
       </c>
       <c r="AH31">
         <v>100</v>
       </c>
       <c r="AI31">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ31">
         <v>60</v>
@@ -8597,43 +8399,43 @@
         <v>40</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP31">
         <v>4</v>
       </c>
       <c r="AQ31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR31">
-        <v>2.666744287555462</v>
+        <v>2.375519911982797</v>
       </c>
       <c r="AS31">
-        <v>0.1000000000000001</v>
+        <v>0.9857142857142857</v>
       </c>
       <c r="AT31">
-        <v>1.908900824661359</v>
+        <v>1.752861100541618</v>
       </c>
       <c r="AU31">
-        <v>0.3999999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="AV31">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AW31">
         <v>1</v>
       </c>
       <c r="AX31">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AY31">
         <v>1</v>
@@ -8642,34 +8444,34 @@
         <v>100</v>
       </c>
       <c r="BA31">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BB31">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BC31">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BD31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BE31">
         <v>20</v>
       </c>
       <c r="BF31">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BG31">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BH31">
-        <v>0.4842780013815088</v>
+        <v>0.51052032415149</v>
       </c>
       <c r="BI31">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="BJ31">
-        <v>1.258762841911136</v>
+        <v>1.104921028901948</v>
       </c>
       <c r="BK31">
         <v>100</v>
@@ -8687,7 +8489,7 @@
         <v>20</v>
       </c>
       <c r="BP31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BQ31">
         <v>50</v>
@@ -8699,25 +8501,25 @@
         <v>5</v>
       </c>
       <c r="BT31">
-        <v>-0.2</v>
+        <v>1.1</v>
       </c>
       <c r="BU31">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="BV31">
-        <v>0.816496580927726</v>
+        <v>0.6546536707079772</v>
       </c>
       <c r="BW31">
-        <v>0.6444099923267405</v>
+        <v>0.6194099923267404</v>
       </c>
       <c r="BX31">
-        <v>0.4488392367834097</v>
+        <v>0.431702608209225</v>
       </c>
       <c r="BY31">
-        <v>0.2375506031271425</v>
+        <v>0.2428934527813694</v>
       </c>
       <c r="BZ31">
-        <v>0.3843893026062353</v>
+        <v>0.3600198561527614</v>
       </c>
       <c r="CA31">
         <v>0.2400963769590483</v>
@@ -8773,31 +8575,31 @@
         <v>1.95</v>
       </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N32">
-        <v>1.843908891458577</v>
+        <v>1.457737973711325</v>
       </c>
       <c r="O32">
-        <v>0.2909815248123233</v>
+        <v>0.2587845551153536</v>
       </c>
       <c r="P32">
-        <v>1.103212033120769</v>
+        <v>1.164863009041884</v>
       </c>
       <c r="Q32">
-        <v>0.2787247686566303</v>
+        <v>0.3439421599609782</v>
       </c>
       <c r="R32">
-        <v>0.3999303849491405</v>
+        <v>0.3650902972612921</v>
       </c>
       <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>0.8</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
       </c>
       <c r="V32">
         <v>1</v>
@@ -8806,13 +8608,13 @@
         <v>90</v>
       </c>
       <c r="X32">
+        <v>40</v>
+      </c>
+      <c r="Y32">
         <v>50</v>
       </c>
-      <c r="Y32">
-        <v>60</v>
-      </c>
       <c r="Z32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA32">
         <v>20</v>
@@ -8821,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD32">
         <v>0.7</v>
@@ -8830,10 +8632,10 @@
         <v>1.176103717640807</v>
       </c>
       <c r="AF32">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AG32">
-        <v>0.5665577237325315</v>
+        <v>0.7297563831157798</v>
       </c>
       <c r="AH32">
         <v>80</v>
@@ -8860,37 +8662,37 @@
         <v>6</v>
       </c>
       <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
         <v>2</v>
       </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
       <c r="AR32">
-        <v>1.946649522325248</v>
+        <v>2.210221029860115</v>
       </c>
       <c r="AS32">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="AT32">
-        <v>1.856068161337209</v>
+        <v>1.958565026743658</v>
       </c>
       <c r="AU32">
-        <v>-1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AV32">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AW32">
         <v>1</v>
       </c>
       <c r="AX32">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AY32">
         <v>1</v>
       </c>
       <c r="AZ32">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BA32">
         <v>80</v>
@@ -8905,70 +8707,70 @@
         <v>40</v>
       </c>
       <c r="BE32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BF32">
         <v>80</v>
       </c>
       <c r="BG32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="BH32">
-        <v>0.7657804862272348</v>
+        <v>0.9428090415820637</v>
       </c>
       <c r="BI32">
         <v>1.9</v>
       </c>
       <c r="BJ32">
-        <v>0.7212212207401567</v>
+        <v>0.8020441719763128</v>
       </c>
       <c r="BK32">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BL32">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BM32">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BN32">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BO32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BP32">
         <v>20</v>
       </c>
       <c r="BQ32">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BR32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT32">
         <v>-0.9999999999999999</v>
       </c>
       <c r="BU32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BV32">
-        <v>1.341640786499874</v>
+        <v>1.457737973711325</v>
       </c>
       <c r="BW32">
-        <v>0.5827676126191348</v>
+        <v>0.5055698330865643</v>
       </c>
       <c r="BX32">
-        <v>0.6919384457662917</v>
+        <v>0.8350979197219897</v>
       </c>
       <c r="BY32">
-        <v>0.2434179364192976</v>
+        <v>0.2375645652804066</v>
       </c>
       <c r="BZ32">
-        <v>0.4919580574810613</v>
+        <v>0.4275378074206934</v>
       </c>
       <c r="CA32">
         <v>0.2475970340065723</v>
@@ -9024,31 +8826,31 @@
         <v>1.73</v>
       </c>
       <c r="M33">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="N33">
-        <v>0.9491187735373225</v>
+        <v>0.7953949089757173</v>
       </c>
       <c r="O33">
-        <v>0.3649814433753589</v>
+        <v>0.4162634946574101</v>
       </c>
       <c r="P33">
-        <v>1.28453169638451</v>
+        <v>1.090444795822283</v>
       </c>
       <c r="Q33">
-        <v>0.2542647058823529</v>
+        <v>0.2563316993464053</v>
       </c>
       <c r="R33">
-        <v>0.5220954103073854</v>
+        <v>0.47310622156794</v>
       </c>
       <c r="S33">
+        <v>0.8</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
         <v>0.6</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -9057,7 +8859,7 @@
         <v>70</v>
       </c>
       <c r="X33">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y33">
         <v>50</v>
@@ -9075,25 +8877,25 @@
         <v>30</v>
       </c>
       <c r="AD33">
+        <v>0.8</v>
+      </c>
+      <c r="AE33">
+        <v>0.9860132971832694</v>
+      </c>
+      <c r="AF33">
         <v>0.7</v>
       </c>
-      <c r="AE33">
-        <v>1.176103717640807</v>
-      </c>
-      <c r="AF33">
-        <v>0.8</v>
-      </c>
       <c r="AG33">
-        <v>1.148670729340852</v>
+        <v>1.355261854357877</v>
       </c>
       <c r="AH33">
         <v>80</v>
       </c>
       <c r="AI33">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK33">
         <v>20</v>
@@ -9111,31 +8913,31 @@
         <v>6</v>
       </c>
       <c r="AP33">
+        <v>4</v>
+      </c>
+      <c r="AQ33">
         <v>3</v>
       </c>
-      <c r="AQ33">
-        <v>4</v>
-      </c>
       <c r="AR33">
-        <v>2.466947148098355</v>
+        <v>2.300987081269796</v>
       </c>
       <c r="AS33">
-        <v>-0.3444444444444443</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="AT33">
-        <v>1.705189706036762</v>
+        <v>1.924103062141709</v>
       </c>
       <c r="AU33">
-        <v>-0.7444444444444445</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="AV33">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AW33">
         <v>1</v>
       </c>
       <c r="AX33">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AY33">
         <v>1</v>
@@ -9156,22 +8958,22 @@
         <v>60</v>
       </c>
       <c r="BE33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BF33">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BG33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="BH33">
-        <v>0.6900655593423546</v>
+        <v>0.790569415042095</v>
       </c>
       <c r="BI33">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="BJ33">
-        <v>0.7959954870644667</v>
+        <v>0.6332866171912038</v>
       </c>
       <c r="BK33">
         <v>100</v>
@@ -9180,46 +8982,46 @@
         <v>100</v>
       </c>
       <c r="BM33">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BN33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BO33">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BP33">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BQ33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BR33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT33">
-        <v>-1.088888888888889</v>
+        <v>-1.3</v>
       </c>
       <c r="BU33">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BV33">
-        <v>1.457737973711325</v>
+        <v>1.527525231651948</v>
       </c>
       <c r="BW33">
-        <v>0.3689042891446263</v>
+        <v>0.4768370337357858</v>
       </c>
       <c r="BX33">
-        <v>0.6830822801688498</v>
+        <v>0.864487222651577</v>
       </c>
       <c r="BY33">
-        <v>0.2631643936214545</v>
+        <v>0.2190068273659605</v>
       </c>
       <c r="BZ33">
-        <v>0.2572441629902997</v>
+        <v>0.4095145266021624</v>
       </c>
       <c r="CA33">
         <v>0.2538610386795425</v>
@@ -9244,7 +9046,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9344,6 +9146,38 @@
       </c>
       <c r="J3">
         <v>2.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4">
+        <v>1.91</v>
+      </c>
+      <c r="G4">
+        <v>3.4</v>
+      </c>
+      <c r="H4">
+        <v>4.33</v>
+      </c>
+      <c r="I4">
+        <v>2.2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9353,7 +9187,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9433,44 +9267,6 @@
       </c>
       <c r="L2">
         <v>2.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3">
-        <v>1.91</v>
-      </c>
-      <c r="G3">
-        <v>3.6</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1.9</v>
-      </c>
-      <c r="J3">
-        <v>1.73</v>
-      </c>
-      <c r="K3">
-        <v>1.9</v>
-      </c>
-      <c r="L3">
-        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -9567,37 +9363,37 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>1.91</v>
       </c>
       <c r="G3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>1.73</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9656,37 +9452,37 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F2">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="G2">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="I2">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="J2">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="K2">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L2">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9912,7 +9708,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9987,28 +9783,28 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -10076,38 +9872,6 @@
       </c>
       <c r="J5">
         <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6">
-        <v>1.95</v>
-      </c>
-      <c r="G6">
-        <v>3.2</v>
-      </c>
-      <c r="H6">
-        <v>4.5</v>
-      </c>
-      <c r="I6">
-        <v>2.88</v>
-      </c>
-      <c r="J6">
-        <v>2.38</v>
       </c>
     </row>
   </sheetData>
@@ -10206,7 +9970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10377,191 +10141,31 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F6">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G6">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="H6">
-        <v>4.82</v>
+        <v>4.33</v>
       </c>
       <c r="I6">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="J6">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7">
-        <v>1.91</v>
-      </c>
-      <c r="G7">
-        <v>3.4</v>
-      </c>
-      <c r="H7">
-        <v>4.33</v>
-      </c>
-      <c r="I7">
-        <v>2.2</v>
-      </c>
-      <c r="J7">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8">
-        <v>1.95</v>
-      </c>
-      <c r="G8">
-        <v>3.2</v>
-      </c>
-      <c r="H8">
-        <v>4.5</v>
-      </c>
-      <c r="I8">
-        <v>2.88</v>
-      </c>
-      <c r="J8">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9">
-        <v>1.8</v>
-      </c>
-      <c r="G9">
-        <v>3.5</v>
-      </c>
-      <c r="H9">
-        <v>4.75</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10">
-        <v>2.25</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3.6</v>
-      </c>
-      <c r="I10">
-        <v>2.4</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11">
-        <v>2.1</v>
-      </c>
-      <c r="G11">
-        <v>3.1</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>2.88</v>
-      </c>
-      <c r="J11">
-        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -10646,31 +10250,31 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F3">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>
@@ -10680,7 +10284,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10723,31 +10327,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F2">
-        <v>1.95</v>
+        <v>1.17</v>
       </c>
       <c r="G2">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="I2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="J2">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10758,28 +10362,28 @@
         <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="H3">
-        <v>2.3</v>
+        <v>3.12</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="J3">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10787,62 +10391,30 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F4">
-        <v>2.47</v>
+        <v>1.91</v>
       </c>
       <c r="G4">
-        <v>3.04</v>
+        <v>3.6</v>
       </c>
       <c r="H4">
-        <v>3.12</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="J4">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5">
-        <v>1.91</v>
-      </c>
-      <c r="G5">
-        <v>3.6</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1.9</v>
-      </c>
-      <c r="J5">
         <v>1.73</v>
       </c>
     </row>
@@ -10928,31 +10500,31 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F3">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="G3">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>1.4</v>
       </c>
       <c r="J3">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10960,31 +10532,31 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F4">
-        <v>1.95</v>
+        <v>2.47</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>3.12</v>
       </c>
       <c r="I4">
-        <v>1.75</v>
+        <v>2.57</v>
       </c>
       <c r="J4">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10992,31 +10564,31 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F5">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="I5">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
@@ -11026,7 +10598,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11072,28 +10644,28 @@
         <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2">
+        <v>2.1</v>
+      </c>
+      <c r="G2">
+        <v>3.5</v>
+      </c>
+      <c r="H2">
+        <v>3.4</v>
+      </c>
+      <c r="I2">
         <v>1.95</v>
       </c>
-      <c r="G2">
-        <v>3.4</v>
-      </c>
-      <c r="H2">
-        <v>3.5</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.75</v>
-      </c>
-      <c r="J2">
-        <v>1.67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11101,31 +10673,31 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F3">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="G3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="J3">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11133,31 +10705,31 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="I4">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="J4">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11165,31 +10737,31 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F5">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="G5">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11235,25 +10807,25 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7">
-        <v>2.47</v>
+        <v>1.8</v>
       </c>
       <c r="G7">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="H7">
-        <v>3.12</v>
+        <v>4.82</v>
       </c>
       <c r="I7">
-        <v>2.57</v>
+        <v>2.43</v>
       </c>
       <c r="J7">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11261,30 +10833,62 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F8">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H8">
         <v>3.6</v>
       </c>
       <c r="I8">
+        <v>2.2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9">
+        <v>2.25</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3.6</v>
+      </c>
+      <c r="I9">
         <v>2.4</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>2</v>
       </c>
     </row>
@@ -11295,7 +10899,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11370,159 +10974,31 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F3">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H3">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="I3">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="J3">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4">
-        <v>2.1</v>
-      </c>
-      <c r="G4">
-        <v>3.1</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>2.88</v>
-      </c>
-      <c r="J4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5">
-        <v>1.93</v>
-      </c>
-      <c r="G5">
-        <v>3.34</v>
-      </c>
-      <c r="H5">
-        <v>3.82</v>
-      </c>
-      <c r="I5">
-        <v>2.16</v>
-      </c>
-      <c r="J5">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6">
-        <v>2.2</v>
-      </c>
-      <c r="G6">
-        <v>3.3</v>
-      </c>
-      <c r="H6">
-        <v>2.9</v>
-      </c>
-      <c r="I6">
-        <v>2.25</v>
-      </c>
-      <c r="J6">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7">
-        <v>2.1</v>
-      </c>
-      <c r="G7">
-        <v>3.5</v>
-      </c>
-      <c r="H7">
-        <v>3.4</v>
-      </c>
-      <c r="I7">
-        <v>1.95</v>
-      </c>
-      <c r="J7">
-        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -11641,7 +11117,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11751,28 +11227,28 @@
         <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4">
+        <v>2.1</v>
+      </c>
+      <c r="G4">
+        <v>3.5</v>
+      </c>
+      <c r="H4">
+        <v>3.4</v>
+      </c>
+      <c r="I4">
         <v>1.95</v>
       </c>
-      <c r="G4">
-        <v>3.4</v>
-      </c>
-      <c r="H4">
-        <v>3.5</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.75</v>
-      </c>
-      <c r="J4">
-        <v>1.67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11780,31 +11256,31 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F5">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="G5">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J5">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11812,31 +11288,191 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6">
+        <v>1.44</v>
+      </c>
+      <c r="G6">
+        <v>4.75</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1.7</v>
+      </c>
+      <c r="J6">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>134</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>166</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>2.47</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>3.04</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>3.12</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>2.57</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>2.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="G8">
+        <v>3.44</v>
+      </c>
+      <c r="H8">
+        <v>4.82</v>
+      </c>
+      <c r="I8">
+        <v>2.43</v>
+      </c>
+      <c r="J8">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9">
+        <v>1.91</v>
+      </c>
+      <c r="G9">
+        <v>3.4</v>
+      </c>
+      <c r="H9">
+        <v>3.6</v>
+      </c>
+      <c r="I9">
+        <v>2.2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10">
+        <v>1.3</v>
+      </c>
+      <c r="G10">
+        <v>4.75</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1.7</v>
+      </c>
+      <c r="J10">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="G11">
+        <v>3.5</v>
+      </c>
+      <c r="H11">
+        <v>4.75</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
